--- a/results/regression/without_Global_Local_1st_pop/500i500g/Summary_to_update.xlsx
+++ b/results/regression/without_Global_Local_1st_pop/500i500g/Summary_to_update.xlsx
@@ -527,7 +527,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +682,15 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>0.93604271428571395</v>
+      </c>
+      <c r="C10">
+        <v>1.8010308571428499</v>
+      </c>
+      <c r="D10">
+        <v>1.29894885714285</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -692,15 +701,15 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <f>AVERAGE(B4:B10)</f>
-        <v>5.41005749999999</v>
+        <v>3.1730501071428519</v>
       </c>
       <c r="C11" s="12">
         <f>AVERAGE(C4:C10)</f>
-        <v>226.73124250000001</v>
+        <v>114.26613667857143</v>
       </c>
       <c r="D11" s="12">
         <f>AVERAGE(D4:D10)</f>
-        <v>12.16112375</v>
+        <v>6.730036303571425</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>

--- a/results/regression/without_Global_Local_1st_pop/500i500g/Summary_to_update.xlsx
+++ b/results/regression/without_Global_Local_1st_pop/500i500g/Summary_to_update.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basgalupp/Dropbox/Github/Clus-Hyper-Code/results/regression/without_Global_Local_1st_pop/500i500g/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3040" yWindow="460" windowWidth="22560" windowHeight="13460" tabRatio="500"/>
   </bookViews>
@@ -15,13 +10,13 @@
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
     <sheet name="Classification" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -516,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,10 +522,10 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -543,7 +538,7 @@
     <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
@@ -557,7 +552,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
@@ -574,7 +569,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -603,9 +598,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B4">
+        <v>397.13955587499902</v>
+      </c>
+      <c r="C4">
+        <v>1921868.2492112401</v>
+      </c>
+      <c r="D4">
+        <v>774.92653037499997</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -614,9 +618,18 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B5">
+        <v>634.10019575000001</v>
+      </c>
+      <c r="C5">
+        <v>2612439.7367996201</v>
+      </c>
+      <c r="D5">
+        <v>1128.6756969999999</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
@@ -625,7 +638,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,9 +658,18 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.4254512500000001</v>
+      </c>
+      <c r="C7">
+        <v>226.79458249999999</v>
+      </c>
+      <c r="D7">
+        <v>12.1649975</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -656,7 +678,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -667,9 +689,18 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
+      </c>
+      <c r="B9">
+        <v>148.26598937499901</v>
+      </c>
+      <c r="C9">
+        <v>43752.590412500002</v>
+      </c>
+      <c r="D9">
+        <v>202.45849000000001</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -678,7 +709,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,18 +729,18 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="12">
         <f>AVERAGE(B4:B10)</f>
-        <v>3.1730501071428519</v>
+        <v>198.54621541071393</v>
       </c>
       <c r="C11" s="12">
         <f>AVERAGE(C4:C10)</f>
-        <v>114.26613667857143</v>
+        <v>763085.9838798698</v>
       </c>
       <c r="D11" s="12">
         <f>AVERAGE(D4:D10)</f>
-        <v>6.730036303571425</v>
+        <v>355.28096458035719</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -718,7 +749,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -729,7 +760,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -740,7 +771,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -751,7 +782,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -765,7 +796,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
@@ -782,7 +813,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
@@ -811,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,7 +868,7 @@
         <v>101.38679999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,7 +894,7 @@
         <v>555.87959999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -889,7 +920,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -915,7 +946,7 @@
         <v>1.0814999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -941,7 +972,7 @@
         <v>37.057200000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -967,7 +998,7 @@
         <v>43.7927999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1024,7 @@
         <v>1.3654999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="J25" t="s">
         <v>13</v>
       </c>
@@ -1011,6 +1042,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1022,9 +1058,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1080,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1120,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1095,7 +1131,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1106,7 +1142,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1117,7 +1153,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1128,7 +1164,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1184,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1224,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1235,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1246,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1221,7 +1257,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1243,5 +1279,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>